--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/vf6.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/vf6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bibliografia_id</t>
+          <t>bibliografia_titulo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Em junho de 1981, pilotos da aeronáutica israelense bombardearam um reator nuclear em construção em Osirak, nas imediações de Bagdá, e nenhum dos aviões envolvidos foi perdido.</t>
+          <t>O consumo agregado é dividido em consumo pessoal (famílias) e consumo do governo.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O ataque israelense de 1981 a Osirak foi realizado por veículos aéreos não tripulados (drones) e não envolveu pilotos humanos, para evitar risco de vida.</t>
+          <t>O consumo agregado é composto exclusivamente pelas despesas das famílias, excluindo-se os gastos do governo.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Oito pilotos da aeronáutica israelense realizaram uma ousada investida voando baixo para não serem detectados e percorreram mais de mil quilômetros.</t>
+          <t>O texto explicita a divisão do consumo agregado entre as aquisições das famílias e os bens/serviços adquiridos pelo governo.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Israel invocou o direito de legítima defesa preventiva para o ataque de Osirak, alegando que um Iraque com armas nucleares representaria uma ameaça inaceitável devido à hostilidade de Saddam Hussein.</t>
+          <t>O consumo é o maior componente da demanda agregada em todos os países.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Israel invocou o Artigo 51 da Carta da ONU para o ataque de Osirak, alegando que o Iraque havia iniciado um ataque armado prévio contra seu território.</t>
+          <t>O investimento é, invariavelmente, o maior componente da demanda agregada nos países, superando o consumo.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Israel invocou o direito de legítima defesa preventiva, alegando que um Iraque dotado de armas nucleares representaria inaceitável ameaça.</t>
+          <t>O consumo justifica-se como objeto de estudo principal por representar a maior parcela da demanda agregada globalmente.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,32 +546,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Israel alegou ter atendido à tradicional exigência de proporcionalidade ao bombardear as obras do reator de Osirak num domingo, para minimizar os riscos para os operários estrangeiros.</t>
+          <t>Os bens de consumo podem ser classificados em leves (consumo rápido), duráveis (consumo por longo período) e serviços.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Para garantir a máxima eficácia, Israel bombardeou o reator de Osirak durante a semana de trabalho, sem se preocupar com a proporcionalidade, por se tratar de ameaça existencial.</t>
+          <t>Os serviços não são considerados parte do consumo agregado, pois não são bens materiais tangíveis.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Israel alegava ter atendido à tradicional exigência de proporcionalidade, bombardeando as obras da construção num domingo, para minimizar os riscos para os operários estrangeiros.</t>
+          <t>A classificação de bens inclui explicitamente os serviços (como educação e cortes de cabelo) junto com bens leves e duráveis.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,32 +580,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança da ONU adotou por unanimidade uma resolução condenando o ataque israelense a Osirak como ilegal, contando com a participação dos Estados Unidos no voto.</t>
+          <t>A "lei psicológica fundamental" de Keynes postula que, ao aumentar a renda, os indivíduos aumentam o consumo, mas também a poupança.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança da ONU se absteve de condenar o ataque a Osirak, em reconhecimento do direito inerente de Israel à legítima defesa preventiva.</t>
+          <t>A "lei psicológica fundamental" de Keynes afirma que todo aumento de renda é destinado integralmente ao aumento do consumo.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Imediatamente depois do ataque a Osirak, o Conselho de Segurança adotou por unanimidade uma resolução condenando como ilegal a ação israelense.</t>
+          <t>O aumento do consumo não ocorre na mesma magnitude do aumento da renda, gerando poupança.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,32 +614,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A exigência do Artigo 51 da Carta da ONU de que a legítima defesa se aplique somente "no caso de ocorrer um ataque armado" neutraliza qualquer direito preventivo de legítima defesa.</t>
+          <t>A poupança agregada é definida como a parcela da renda disponível não consumida, representando uma opção pelo consumo futuro.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A referência ao caráter "inerente" do direito no Artigo 51 confirma que o direito consuetudinário de legítima defesa preventiva, sem a necessidade de ataque armado, prevalece.</t>
+          <t>A poupança agregada é o dinheiro que sobra após o pagamento de impostos, independentemente de ser gasto ou guardado.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A exigência do Artigo 51 de que a legítima defesa se aplique somente "no caso de ocorrer um ataque armado" neutraliza qualquer direito preventivo de legítima defesa.</t>
+          <t>Poupança é explicitamente definida como a renúncia ao consumo presente em troca de consumo futuro.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,32 +648,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Os critérios do caso *Caroline* (necessidade urgente, incontornável, sem opção de meios nem tempo para deliberação) eram amplamente aceitos como definindo um limitado direito preventivo de legítima defesa no direito consuetudinário internacional antes de 1945.</t>
+          <t>A renda das famílias tem três destinos básicos na contabilidade: consumo, poupança ou pagamento de impostos.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>O caso *Caroline* ocorreu após 1945 e estabeleceu o princípio de que a legítima defesa só pode ser exercida após um ataque armado, conforme o Artigo 51 da Carta da ONU.</t>
+          <t>A renda das famílias só pode ser destinada ao consumo ou ao investimento em bolsa de valores, ignorando-se os impostos.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Até 1945, aceitava-se amplamente que os critérios do *Caroline* definiam um limitado direito preventivo de legítima defesa no direito consuetudinário internacional.</t>
+          <t>O texto lista os três destinos da renda: consumo, poupança e impostos.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,32 +682,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Israel justificou o início da Guerra dos Seis Dias em 1967 alegando que o bloqueio egípcio do estreito de Tiran constituía um ato prévio de agressão, evitando invocar um direito preventivo.</t>
+          <t>Segundo a teoria keynesiana, a propensão média a consumir tende a ser decrescente conforme a renda aumenta (ricos poupam proporcionalmente mais).</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Israel invocou a legítima defesa preventiva em 1967, citando a urgência da ameaça egípcia, para justificar o início da Guerra dos Seis Dias.</t>
+          <t>Indivíduos de baixa renda tendem a poupar uma parcela maior de seus ganhos do que indivíduos de alta renda.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Israel justificou os ataques que deram início à Guerra dos Seis Dias alegando que o bloqueio do estreito de Tiran pelo Egito constituía um ato prévio de agressão.</t>
+          <t>Indivíduos de alta renda possuem um consumo absoluto maior, mas uma propensão média a consumir menor (poupam mais proporcionalmente).</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,32 +716,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A Doutrina Bush, anunciada em 2002, defende levar a batalha ao inimigo e fazer frente às ameaças mais graves, antes mesmo que se materializem, estendendo o emprego preventivo da força.</t>
+          <t>O aumento de impostos reduz a renda disponível e, consequentemente, tende a reduzir o consumo das famílias.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A Doutrina Bush se limita a reinterpretar os critérios do caso *Caroline*, exigindo a iminência da ameaça antes de qualquer ação preventiva.</t>
+          <t>O aumento de impostos estimula o consumo das famílias, pois o governo gasta mais na economia.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O presidente Bush defendia levar a batalha até o inimigo e fazer frente às mais graves ameaças, antes mesmo que se materializem, estendendo o emprego preventivo da força.</t>
+          <t>Impostos deduzidos da renda diminuem a renda pessoal disponível, base para a decisão de consumir.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,32 +750,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O governo Bush, ironicamente, recusou-se a ratificar protocolos de aplicação das Convenções sobre Armas Químicas e Biológicas e milita ativamente contra o Tribunal Penal Internacional.</t>
+          <t>A propensão marginal a consumir refere-se à parcela de um *aumento* (acréscimo) de renda que é destinada ao consumo.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>O governo Bush assumiu a liderança na luta contra as ADM, acelerando a ratificação de todos os protocolos das Convenções sobre Armas Químicas e Biológicas.</t>
+          <t>A propensão marginal a consumir é a divisão do consumo total pela renda total de uma família.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O governo Bush recusou-se a ratificar os protocolos de aplicação das Convenções sobre Armas Químicas e Biológicas e milita ativamente contra o Tribunal Penal Internacional.</t>
+          <t>O conceito marginal refere-se à variação (acréscimo) da renda, não ao total.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pelo Princípio de aplicação equitativa do direito consuetudinário, a concessão de um direito ampliado de legítima defesa preventiva a um país obrigaria a conceder o mesmo direito a potências nucleares como Índia, Paquistão e Israel.</t>
+          <t>Para um mesmo nível de renda, tende a consumir mais a família que possuir maior riqueza acumulada (ativos reais e financeiros).</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>O direito consuetudinário internacional permite que o direito de ação preventiva seja limitado apenas a potências globais como os EUA, para garantir a estabilidade.</t>
+          <t>A riqueza acumulada não influencia o consumo, pois a decisão de gastar depende exclusivamente da renda corrente mensal.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Estaríamos obrigados a conceder o mesmo direito ampliado à Índia, ao Paquistão e a Israel pelo Princípio de aplicação equitativa do direito consuetudinário internacional.</t>
+          <t>A riqueza oferece segurança futura, permitindo que a família consuma uma parcela maior de sua renda corrente.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A Carta da ONU estabelece que, na ausência de um ataque armado, apenas o Conselho de Segurança pode agir em resposta a ameaças biológicas, químicas ou nucleares.</t>
+          <t>O Modelo do Ciclo de Vida (Ando-Modigliani) sugere que indivíduos poupam quando jovens para despoupar e manter o consumo na velhice.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Na ausência de um ataque, os Estados Unidos têm o direito legal de agir unilateralmente em caso de ameaças de ADM, conforme as resoluções subsequentes ao 11 de setembro.</t>
+          <t>O Modelo do Ciclo de Vida sugere que os jovens devem gastar tudo o que ganham e começar a poupar apenas quando se aposentarem.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Na ausência de um ataque, só o Conselho de Segurança da ONU pode agir em resposta a ameaças biológicas, químicas ou nucleares.</t>
+          <t>A lógica do modelo é suavizar o consumo, acumulando na fase produtiva para gastar na aposentadoria.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,32 +852,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A maioria dos países nada tem a lucrar com a ampliação do direito de legítima defesa preventiva, e a inexistência de amplas vantagens recíprocas é tipicamente fatal ao desenvolvimento do direito consuetudinário internacional.</t>
+          <t>O "efeito riqueza" explica como a variação no preço de ativos (como ações) pode expandir ou retrair o consumo agregado.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A Doutrina Bush ganhou apoio generalizado da maioria dos países, estabelecendo rapidamente um novo direito consuetudinário de legítima defesa preventiva.</t>
+          <t>O "efeito riqueza" refere-se apenas ao aumento de salários, sem relação com o valor de ativos financeiros ou imóveis.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A maioria dos países nada tem a lucrar com a ampliação de um direito de legítima defesa em caráter preventivo, o que costuma ser fatal ao desenvolvimento do direito consuetudinário internacional.</t>
+          <t>A valorização ou desvalorização de ativos altera a percepção de riqueza, impactando a decisão de consumo.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,32 +886,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A Estratégia de Segurança Nacional dos Estados Unidos (2002) reformulou a Doutrina Bush, adotando e procurando estender o critério de iminência do caso *Caroline* para torná-la mais aceitável juridicamente.</t>
+          <t>De acordo com o modelo de Friedman, o consumo é determinado pela renda permanente (esperada), e a renda transitória afeta principalmente a poupança.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A Estratégia de Segurança Nacional rejeitou completamente o critério do *Caroline*, insistindo que o uso da força preventiva deve ser baseado exclusivamente em novas resoluções do Conselho de Segurança.</t>
+          <t>Segundo Friedman, qualquer ganho extra inesperado (renda transitória) é imediatamente transformado em consumo.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A Estratégia de Segurança Nacional dos Estados Unidos adotou explicitamente e procurou estender o critério de legítima defesa articulado por Daniel Webster após o incidente do *Caroline*.</t>
+          <t>Os indivíduos poupam aumentos transitórios para cobrir momentos de queda, baseando o consumo na renda média esperada (permanente).</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,32 +920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A extensão do critério de iminência, conforme propugnado na Estratégia de Segurança Nacional, aumenta a ambiguidade legal, permitindo que o poder e a influência desempenhem maior papel na aplicação da lei.</t>
+          <t>O envelhecimento populacional tende a reduzir a taxa de poupança da economia, pois idosos estão na fase de despoupança.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A Estratégia de Segurança Nacional buscou aumentar a clareza e objetividade na lei sobre legítima defesa, limitando a discricionariedade dos países mais poderosos.</t>
+          <t>O envelhecimento da população aumenta a poupança agregada, pois idosos tendem a guardar mais dinheiro que jovens.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A nova abordagem propugnada na Estratégia de Segurança Nacional poderia aumentar consideravelmente a ambiguidade da lei, permitindo que o poder e a influência desempenhassem maior papel na aplicação da lei.</t>
+          <t>No modelo do ciclo de vida, a velhice é a fase de uso da poupança acumulada (despoupança), reduzindo a taxa nacional.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,32 +954,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A reação internacional à Estratégia de Segurança Nacional foi dividida, com potências como a Índia e a Rússia respondendo favoravelmente, enquanto outros países manifestaram preocupação ou delimitaram a reivindicação aos critérios do *Caroline*.</t>
+          <t>A renda transitória corresponde a desvios aleatórios (positivos ou negativos) da renda corrente em relação à renda permanente.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Houve um apoio unânime e generalizado à Estratégia de Segurança Nacional, levando o Congresso dos EUA a pressionar pela alteração do Artigo 51 da Carta da ONU.</t>
+          <t>A renda transitória é aquela recebida regularmente pelo trabalhador, como o salário mensal fixo.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A reação foi dividida, com potências regionais como a Índia, Israel e a Rússia respondendo favoravelmente, e outros países manifestando preocupação ou confinando a reivindicação aos critérios do episódio *Caroline*.</t>
+          <t>Renda transitória refere-se a eventos inesperados ou temporários (ex: bônus, perda de colheita).</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -988,32 +988,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Após a Guerra do Iraque, a generalizada oposição à Doutrina Bush ficou evidente nos discursos de abertura da Assembleia Geral da ONU em 2003, que exortavam um retorno ao diálogo multilateral e à ação coletiva.</t>
+          <t>No Sistema de Repartição Simples (SRS), as contribuições dos trabalhadores ativos financiam diretamente os benefícios dos inativos (aposentados).</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Em 2003, a Assembleia Geral da ONU manifestou amplo apoio à Doutrina Bush, reconhecendo a necessidade de ações preventivas unilaterais contra o terrorismo.</t>
+          <t>No Sistema de Repartição Simples (SRS), cada trabalhador deposita dinheiro em uma conta individual que será usada apenas por ele no futuro.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A generalizada oposição à Doutrina Bush ficou evidente nos discursos de abertura da Assembleia Geral da ONU em setembro de 2003, com exortações ao retorno ao diálogo multilateral e à ação coletiva.</t>
+          <t>SRS baseia-se na solidariedade entre gerações (ativos pagam para inativos correntes), diferente da capitalização.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1022,32 +1022,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Em fevereiro de 2004, o presidente Bush declarou que em um "novo tipo de guerra" será "tarde demais quando ela se tornar iminente", reafirmando a necessidade de enfrentá-la antes.</t>
+          <t>Uma das razões para a previdência ser compulsória é a miopia dos agentes, que podem não ter disciplina para poupar visando o longo prazo.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Em 2004, o presidente Bush recuou da Doutrina de guerra preventiva, concordando que todas as ameaças devem ser levadas ao Conselho de Segurança.</t>
+          <t>A previdência é compulsória apenas porque o governo precisa arrecadar impostos para obras de infraestrutura, sem relação com a aposentadoria.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O presidente Bush declarou que é preciso enfrentar a ameaça antes que ela se torne iminente, pois será tarde demais nesse novo tipo de guerra.</t>
+          <t>A literatura aponta a falta de visão de longo prazo (miopia) como justificativa para o Estado obrigar a poupança previdenciária.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1056,36 +1056,444 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O Painel de Alto Nível da ONU (2004) concluiu que, se houver comprovação sólida para ação militar preventiva, a questão deve ser apresentada ao Conselho de Segurança para autorização.</t>
+          <t>Argumenta-se que sistemas de previdência pública (SRS) podem desestimular a poupança privada devido ao "efeito carona" (benefício garantido).</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>O Painel de Alto Nível de 2004 endossou o caráter legal de ações unilaterais preventivas, desde que o Estado apresente comprovação sólida ao Secretário-Geral da ONU.</t>
+          <t>Sistemas de previdência pública garantem um aumento automático da poupança privada, pois os cidadãos ficam com medo de não receber o benefício.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O Painel de Alto Nível opinou que, havendo fundamentação sólida para ação preventiva, a questão deve ser apresentada ao Conselho de Segurança, rejeitando o caráter legal de ações unilaterais.</t>
+          <t>A garantia de renda futura pelo Estado pode fazer com que o indivíduo sinta menos necessidade de poupar por conta própria.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A taxa de juros representa o custo de oportunidade do consumo presente, funcionando como um "prêmio pela espera".</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>A taxa de juros não tem relação com o consumo intertemporal, afetando apenas as decisões de investimento das empresas.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Juros remuneram a renúncia ao consumo imediato em favor do futuro.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>O aumento da taxa de juros encarece o consumo presente em relação ao futuro, estimulando a poupança (efeito substituição).</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>O aumento da taxa de juros torna o consumo presente mais barato, incentivando as pessoas a gastarem tudo agora.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Juros altos aumentam a recompensa por poupar, tornando o ato de gastar agora comparativamente mais custoso.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Taxas de juros elevadas inibem a compra de bens duráveis, pois encarecem os financiamentos ou tornam a aplicação financeira mais atrativa.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A venda de bens duráveis (carros, imóveis) aumenta quando as taxas de juros sobem, pois o crédito fica mais acessível.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bens de alto valor dependem de crédito; juros altos encarecem o crédito e aumentam o custo de oportunidade de usar o dinheiro.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Para agentes que são poupadores líquidos, um aumento na taxa de juros pode aumentar a renda e o consumo (efeito riqueza).</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>O aumento da taxa de juros sempre reduz o consumo de todos os agentes econômicos, independentemente de serem devedores ou poupadores.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Quem vive de renda financeira (poupadores) ganha mais quando os juros sobem, podendo consumir mais.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>O aumento da taxa de juros pode elevar o déficit público (pagamento da dívida), reduzindo a poupança pública.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>O aumento da taxa de juros melhora as contas públicas, aumentando automaticamente a poupança do governo.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Juros maiores sobre a dívida pública aumentam as despesas do governo, piorando o déficit (poupança negativa).</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A restrição ao crédito ocorre quando agentes dispostos a pagar a taxa vigente não conseguem empréstimos por falta de garantias ou falhas de mercado.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>A restrição ao crédito acontece apenas quando o consumidor não quer tomar empréstimos porque a taxa de juros está muito alta.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A restrição é uma barreira de acesso (oferta) mesmo para quem aceita o preço (juros), geralmente devido a assimetrias de informação.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A poupança precaucionária surge da incerteza em relação à renda futura (ex: medo do desemprego), reduzindo o consumo corrente.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A incerteza quanto ao futuro faz com que as pessoas consumam mais no presente, gerando a "poupança negativa".</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>O medo de perder renda no futuro leva os indivíduos a guardarem recursos hoje por precaução.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>O aumento do prazo de financiamento reduz o valor das prestações, estimulando a demanda por crédito e o consumo.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Prazos de financiamento mais longos desestimulam o consumo, pois as pessoas preferem pagar tudo à vista.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Prestações menores (via prazo longo) cabem no bolso, facilitando a decisão de compra de bens caros.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>As reformas financeiras de 1964/1966 no Brasil impulsionaram o consumo de duráveis ao criar mecanismos de crédito direto ao consumidor (letras de câmbio).</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>O "Milagre Econômico" brasileiro foi marcado pela proibição do crédito ao consumidor, baseando-se apenas em compras à vista.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>O texto atribui parte do boom de consumo do "Milagre" à criação institucional do crédito ao consumidor.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>O consumo tende a ser relativamente estável ao longo do tempo, apresentando flutuações menores que as da renda.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>O consumo é o componente mais volátil da demanda agregada, variando drasticamente a cada pequena mudança na renda.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Séries históricas mostram estabilidade na relação consumo/renda, suavizada por poupança e crédito.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No Brasil, o consumo final (soma de famílias e governo) representa historicamente cerca de 80% ou mais do PIB.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No Brasil, o consumo final tem uma participação pequena no PIB, inferior a 50%, sendo superado pelo investimento.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>A Tabela 6.1 mostra consistentemente o consumo total girando em torno de 80-85% do PIB.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>O consumo das famílias tem uma participação no PIB (aprox. 60-65%) significativamente maior que o consumo do governo (aprox. 20%).</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>O governo brasileiro consome mais bens e serviços do que todas as famílias brasileiras juntas.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Os dados da tabela mostram o consumo das famílias sendo cerca de 3 vezes maior que o do governo.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
